--- a/emachinery/jsons/ACMInfo.xlsx
+++ b/emachinery/jsons/ACMInfo.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrH\Codes\emachineryTestPYPI\emachinery\jsons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930CCCEE-0310-4A10-87AA-0B2783727550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E03535-28C3-4F66-BF80-96E5B3360F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2280" windowWidth="20520" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
     <sheet name="参数辨识" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
   <si>
     <t>品牌</t>
   </si>
@@ -50,21 +50,12 @@
     <t>最大电流 [Arms]</t>
   </si>
   <si>
-    <t>电机堵转电流 [Arms]</t>
-  </si>
-  <si>
     <t>极对数 [1]</t>
   </si>
   <si>
     <t>转动惯量 [kg.cm^2]</t>
   </si>
   <si>
-    <t>电机线电阻 [Ohm]</t>
-  </si>
-  <si>
-    <t>电机反电势常数 [mV/rpm]</t>
-  </si>
-  <si>
     <t>编码器类型</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>编码器线数 [line/rev]</t>
   </si>
   <si>
-    <t>旋转型无刷电机/伺服电机</t>
-  </si>
-  <si>
     <t>增量式编码器-正交型</t>
   </si>
   <si>
@@ -98,12 +86,6 @@
     <t>杭州中科伺尔沃</t>
   </si>
   <si>
-    <t>电机D轴线电感 [mH]</t>
-  </si>
-  <si>
-    <t>电机Q轴线电感 [mH]</t>
-  </si>
-  <si>
     <t>转矩常数 [Nm/Arms]</t>
   </si>
   <si>
@@ -122,16 +104,77 @@
     <t>旋转型直流有刷电机</t>
   </si>
   <si>
-    <t>SEW200W (SF60B04030C2004)</t>
-  </si>
-  <si>
     <t>SEW400W (SF60B04030C2004)</t>
+  </si>
+  <si>
+    <t>小红</t>
+  </si>
+  <si>
+    <t>富生</t>
+  </si>
+  <si>
+    <t>旋转型无刷电机/伺服永磁电机</t>
+  </si>
+  <si>
+    <t>旋转型感应电机</t>
+  </si>
+  <si>
+    <t>转矩常数 [Nm/Apeak]</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>$T_{em}=\frac{3}{2}n_{pp}\frac{e}{\omega}1.414\frac{i_q}{1.414}=k_T\left[ \frac{\mathrm{Nm}}{\mathrm{Arms}} \right] \frac{i_q}{1.414}$</t>
+  </si>
+  <si>
+    <t>反电势常数CJH [mV/rpm]</t>
+  </si>
+  <si>
+    <t>额定反电势CJH [V]</t>
+  </si>
+  <si>
+    <t>额定反电势CJH [Vrms]</t>
+  </si>
+  <si>
+    <t>D轴线电感 [mH]</t>
+  </si>
+  <si>
+    <t>Q轴线电感 [mH]</t>
+  </si>
+  <si>
+    <t>线电阻 [Ohm]</t>
+  </si>
+  <si>
+    <t>堵转电流 [Arms]</t>
+  </si>
+  <si>
+    <t>定子电阻 [Ohm]</t>
+  </si>
+  <si>
+    <t>反伽马漏电感 [mH]</t>
+  </si>
+  <si>
+    <t>定子D轴电感 [mH]</t>
+  </si>
+  <si>
+    <t>定子Q轴电感 [mH]</t>
+  </si>
+  <si>
+    <t>额定反电势系数 [Wb]</t>
+  </si>
+  <si>
+    <t>反伽马转子电阻 [Ohm]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,15 +192,57 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +265,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -192,6 +288,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,487 +668,803 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="17">
+        <v>4</v>
+      </c>
+      <c r="C4" s="17">
+        <v>4</v>
+      </c>
+      <c r="D4" s="17">
+        <v>4</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="17">
+        <v>100</v>
+      </c>
+      <c r="C5" s="17">
+        <v>200</v>
+      </c>
+      <c r="D5" s="17">
+        <v>400</v>
+      </c>
+      <c r="E5" s="17">
+        <v>43</v>
+      </c>
+      <c r="F5" s="17">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3000</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3000</v>
+      </c>
+      <c r="D6" s="17">
+        <v>3000</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3000</v>
+      </c>
+      <c r="F6" s="17">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="D7" s="17">
+        <v>12.8</v>
+      </c>
+      <c r="E7" s="17">
+        <v>2.4</v>
+      </c>
+      <c r="F7" s="17">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2.4E-2</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.16</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="18">
+        <f>0.063*10000</f>
+        <v>630</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3200</v>
+      </c>
+      <c r="C9" s="19">
+        <v>3800</v>
+      </c>
+      <c r="D9" s="19">
+        <v>3200</v>
+      </c>
+      <c r="E9" s="19">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C10" s="19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D10" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F10" s="19">
+        <f>F21</f>
+        <v>26.525824301130999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19">
+        <v>7</v>
+      </c>
+      <c r="C11" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="D11" s="19">
+        <v>12.8</v>
+      </c>
+      <c r="E11" s="19">
+        <v>2.4</v>
+      </c>
+      <c r="F11" s="19">
+        <f>F7</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="19">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="D12" s="19">
+        <v>3</v>
+      </c>
+      <c r="E12" s="19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="19">
+        <f>F11</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20">
+        <f>24.9</f>
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="20">
+        <f t="shared" ref="B15:E16" si="0">B18/2</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+      <c r="F15" s="20">
+        <f>(0.448+0.0249)*1000</f>
+        <v>472.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+      <c r="F16" s="20">
+        <f>(0.448+0.0249)*1000</f>
+        <v>472.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="20">
+        <f>B20/2</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" ref="C17:E17" si="1">C20/2</f>
+        <v>0.2465</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.152</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="20">
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C18" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F18" s="21">
+        <f>2*F15</f>
+        <v>945.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" ref="F19:F20" si="2">2*F16</f>
+        <v>945.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="2"/>
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="21">
+        <f>B5/(B6/60*2*3.1415926)</f>
+        <v>0.31830989161357204</v>
+      </c>
+      <c r="C21" s="21">
+        <f>C5/(C6/60*2*3.1415926)</f>
+        <v>0.63661978322714408</v>
+      </c>
+      <c r="D21" s="21">
+        <f>D5/(D6/60*2*3.1415926)</f>
+        <v>1.2732395664542882</v>
+      </c>
+      <c r="E21" s="21">
+        <f>E5/(E6/60*2*3.1415926)</f>
+        <v>0.13687325339383596</v>
+      </c>
+      <c r="F21" s="21">
+        <f>F5/(F6/60*2*3.1415926)</f>
+        <v>26.525824301130999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="22">
+        <f>B21/B7</f>
+        <v>9.0945683318163439E-2</v>
+      </c>
+      <c r="C22" s="22">
+        <f>C21/C7</f>
+        <v>9.7941505111868318E-2</v>
+      </c>
+      <c r="D22" s="22">
+        <f>D21/D7</f>
+        <v>9.9471841129241262E-2</v>
+      </c>
+      <c r="E22" s="22">
+        <f>E21/E7</f>
+        <v>5.7030522247431652E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <f>F21/F7</f>
+        <v>3.0142982160376133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>400</v>
-      </c>
-      <c r="E4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>3000</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5">
-        <v>3000</v>
-      </c>
-      <c r="E5">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.32</v>
-      </c>
-      <c r="C6">
-        <v>0.64</v>
-      </c>
-      <c r="D6">
-        <v>1.27</v>
-      </c>
-      <c r="E6">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3.5</v>
-      </c>
-      <c r="C7">
-        <v>6.5</v>
-      </c>
-      <c r="D7">
-        <v>12.8</v>
-      </c>
-      <c r="E7">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>3200</v>
-      </c>
-      <c r="C8">
-        <v>3800</v>
-      </c>
-      <c r="D8">
-        <v>3200</v>
-      </c>
-      <c r="E8">
-        <v>3200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0.7</v>
-      </c>
-      <c r="C9">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="D9">
-        <v>1.27</v>
-      </c>
-      <c r="E9">
-        <v>0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>6.5</v>
-      </c>
-      <c r="D10">
-        <v>12.8</v>
-      </c>
-      <c r="E10">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>4.5</v>
-      </c>
-      <c r="C11">
-        <v>6.5</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B23" s="23">
+        <f>B21/B7/1.414</f>
+        <v>6.4318022148630444E-2</v>
+      </c>
+      <c r="C23" s="23">
+        <f>C21/C7/1.414</f>
+        <v>6.9265562313909707E-2</v>
+      </c>
+      <c r="D23" s="23">
+        <f>D21/D7/1.414</f>
+        <v>7.0347836725064547E-2</v>
+      </c>
+      <c r="E23" s="23">
+        <f>E21/E7/1.414</f>
+        <v>4.0332759722370333E-2</v>
+      </c>
+      <c r="F23" s="23">
+        <f>F21/F7/1.414</f>
+        <v>2.1317526280322583</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="16">
+        <f>B23/1.5/B4</f>
+        <v>1.0719670358105074E-2</v>
+      </c>
+      <c r="C24" s="16">
+        <f>C23/1.5/C4</f>
+        <v>1.1544260385651617E-2</v>
+      </c>
+      <c r="D24" s="16">
+        <f>D23/1.5/D4</f>
+        <v>1.1724639454177425E-2</v>
+      </c>
+      <c r="E24" s="16">
+        <f>E23/1.5/E4</f>
+        <v>2.6888506481580223E-2</v>
+      </c>
+      <c r="F24" s="16">
+        <f>F23/1.5/F4</f>
+        <v>0.71058420934408606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="23">
+        <f>B23/1.5/B4*(1000/(1/B4/2/3.1415926*60))</f>
+        <v>4.4902449428616329</v>
+      </c>
+      <c r="C25" s="23">
+        <f>C23/1.5/C4*(1000/(1/C4/2/3.1415926*60))</f>
+        <v>4.8356484000048354</v>
+      </c>
+      <c r="D25" s="23">
+        <f>D23/1.5/D4*(1000/(1/D4/2/3.1415926*60))</f>
+        <v>4.9112054062549113</v>
+      </c>
+      <c r="E25" s="23">
+        <f>E23/1.5/E4*(1000/(1/E4/2/3.1415926*60))</f>
+        <v>2.8157577662528155</v>
+      </c>
+      <c r="F25" s="23">
+        <f>F23/1.5/F4*(1000/(1/F4/2/3.1415926*60))</f>
+        <v>148.82440625014877</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="23">
+        <f>B25/1000*B6</f>
+        <v>13.470734828584897</v>
+      </c>
+      <c r="C26" s="23">
+        <f>C25/1000*C6</f>
+        <v>14.506945200014506</v>
+      </c>
+      <c r="D26" s="23">
+        <f>D25/1000*D6</f>
+        <v>14.733616218764736</v>
+      </c>
+      <c r="E26" s="23">
+        <f>E25/1000*E6</f>
+        <v>8.4472732987584465</v>
+      </c>
+      <c r="F26" s="23">
+        <f>F25/1000*F6</f>
+        <v>214.30714500021421</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="24">
+        <f t="shared" ref="B27" si="3">B26/1.414</f>
+        <v>9.5266865831576357</v>
+      </c>
+      <c r="C27" s="24">
+        <f t="shared" ref="C27" si="4">C26/1.414</f>
+        <v>10.259508628015917</v>
+      </c>
+      <c r="D27" s="24">
+        <f t="shared" ref="D27" si="5">D26/1.414</f>
+        <v>10.419813450328668</v>
+      </c>
+      <c r="E27" s="24">
+        <f t="shared" ref="E27" si="6">E26/1.414</f>
+        <v>5.9740263781884346</v>
+      </c>
+      <c r="F27" s="24">
+        <f t="shared" ref="F27" si="7">F26/1.414</f>
+        <v>151.56092291387145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="C13">
-        <v>2.4E-2</v>
-      </c>
-      <c r="D13">
-        <v>0.16</v>
-      </c>
-      <c r="E13">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C14">
-        <v>1.4</v>
-      </c>
-      <c r="D14">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E14">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C15">
-        <v>1.4</v>
-      </c>
-      <c r="D15">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E15">
-        <v>0.24399999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16">
-        <v>0.95</v>
-      </c>
-      <c r="C16">
-        <v>0.49299999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17">
-        <v>0.09</v>
-      </c>
-      <c r="C17">
-        <v>0.11</v>
-      </c>
-      <c r="D17">
-        <v>9.9000000000000005E-2</v>
-      </c>
-      <c r="E17">
-        <v>5.7000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B29" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C29" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D29" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E29" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
-        <v>6.3010000000000002</v>
-      </c>
-      <c r="C18">
-        <v>6.64</v>
-      </c>
-      <c r="D18">
-        <v>6.64</v>
-      </c>
-      <c r="E18">
-        <v>3.9809999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
-        <v>10000</v>
-      </c>
-      <c r="C20">
-        <v>10000</v>
-      </c>
-      <c r="D20">
-        <v>10000</v>
-      </c>
-      <c r="E20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
+      <c r="B30" s="10">
         <v>2500</v>
       </c>
-      <c r="C21">
+      <c r="C30" s="10">
         <v>2500</v>
       </c>
-      <c r="D21">
+      <c r="D30" s="10">
         <v>2500</v>
       </c>
-      <c r="E21">
+      <c r="E30" s="10">
         <v>500</v>
+      </c>
+      <c r="F30" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>9</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
     </row>

--- a/emachinery/jsons/ACMInfo.xlsx
+++ b/emachinery/jsons/ACMInfo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrH\Codes\emachineryTestPYPI\emachinery\jsons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E03535-28C3-4F66-BF80-96E5B3360F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D95EE4-B986-4D7D-9390-03AC9077E459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
   <si>
     <t>品牌</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>反伽马转子电阻 [Ohm]</t>
+  </si>
+  <si>
+    <t>母线电压 [Vdc]</t>
   </si>
 </sst>
 </file>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,144 +845,139 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19">
-        <v>3200</v>
-      </c>
-      <c r="C9" s="19">
-        <v>3800</v>
-      </c>
-      <c r="D9" s="19">
-        <v>3200</v>
-      </c>
-      <c r="E9" s="19">
-        <v>3200</v>
-      </c>
-      <c r="F9" s="19">
-        <v>3000</v>
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="18">
+        <v>48</v>
+      </c>
+      <c r="C9" s="18">
+        <v>48</v>
+      </c>
+      <c r="D9" s="18">
+        <v>48</v>
+      </c>
+      <c r="E9" s="18">
+        <v>24</v>
+      </c>
+      <c r="F9" s="18">
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="19">
-        <v>0.7</v>
+        <v>3200</v>
       </c>
       <c r="C10" s="19">
-        <v>2.2400000000000002</v>
+        <v>3800</v>
       </c>
       <c r="D10" s="19">
-        <v>1.27</v>
+        <v>3200</v>
       </c>
       <c r="E10" s="19">
-        <v>0.13700000000000001</v>
+        <v>3200</v>
       </c>
       <c r="F10" s="19">
-        <f>F21</f>
-        <v>26.525824301130999</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="C11" s="19">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1.27</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="F11" s="19">
+        <f>F22</f>
+        <v>26.525824301130999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B12" s="19">
         <v>7</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C12" s="19">
         <v>6.5</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D12" s="19">
         <v>12.8</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E12" s="19">
         <v>2.4</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F12" s="19">
         <f>F7</f>
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B13" s="19">
         <v>4.5</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C13" s="19">
         <v>6.5</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>3</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E13" s="19">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F12" s="19">
-        <f>F11</f>
+      <c r="F13" s="19">
+        <f>F12</f>
         <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20">
-        <f>24.9</f>
-        <v>24.9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20">
-        <v>1.6</v>
+        <f>24.9</f>
+        <v>24.9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="20">
-        <f t="shared" ref="B15:E16" si="0">B18/2</f>
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="C15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.7</v>
-      </c>
-      <c r="D15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="E15" s="20">
-        <f t="shared" si="0"/>
-        <v>0.122</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="20">
-        <f>(0.448+0.0249)*1000</f>
-        <v>472.9</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B16:E17" si="0">B19/2</f>
         <v>2.0499999999999998</v>
       </c>
       <c r="C16" s="20">
@@ -1001,52 +999,56 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="0"/>
+        <v>0.122</v>
+      </c>
+      <c r="F17" s="20">
+        <f>(0.448+0.0249)*1000</f>
+        <v>472.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="20">
-        <f>B20/2</f>
+      <c r="B18" s="20">
+        <f>B21/2</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="C17" s="20">
-        <f t="shared" ref="C17:E17" si="1">C20/2</f>
+      <c r="C18" s="20">
+        <f t="shared" ref="C18:E18" si="1">C21/2</f>
         <v>0.2465</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D18" s="20">
         <f t="shared" si="1"/>
         <v>0.152</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E18" s="20">
         <f t="shared" si="1"/>
         <v>0.25</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F18" s="20">
         <v>3.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="21">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C18" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="D18" s="21">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="E18" s="21">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="F18" s="21">
-        <f>2*F15</f>
-        <v>945.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="21">
         <v>4.0999999999999996</v>
@@ -1061,271 +1063,292 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="F19" s="21">
-        <f t="shared" ref="F19:F20" si="2">2*F16</f>
+        <f>2*F16</f>
         <v>945.8</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="21">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C20" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" ref="F20:F21" si="2">2*F17</f>
+        <v>945.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B21" s="21">
         <v>0.95</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C21" s="21">
         <v>0.49299999999999999</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="21">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E21" s="21">
         <v>0.5</v>
       </c>
-      <c r="F20" s="21">
+      <c r="F21" s="21">
         <f t="shared" si="2"/>
         <v>6.08</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B22" s="21">
         <f>B5/(B6/60*2*3.1415926)</f>
         <v>0.31830989161357204</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C22" s="21">
         <f>C5/(C6/60*2*3.1415926)</f>
         <v>0.63661978322714408</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D22" s="21">
         <f>D5/(D6/60*2*3.1415926)</f>
         <v>1.2732395664542882</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E22" s="21">
         <f>E5/(E6/60*2*3.1415926)</f>
         <v>0.13687325339383596</v>
       </c>
-      <c r="F21" s="21">
+      <c r="F22" s="21">
         <f>F5/(F6/60*2*3.1415926)</f>
         <v>26.525824301130999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="22">
-        <f>B21/B7</f>
+      <c r="B23" s="22">
+        <f>B22/B7</f>
         <v>9.0945683318163439E-2</v>
       </c>
-      <c r="C22" s="22">
-        <f>C21/C7</f>
+      <c r="C23" s="22">
+        <f>C22/C7</f>
         <v>9.7941505111868318E-2</v>
       </c>
-      <c r="D22" s="22">
-        <f>D21/D7</f>
+      <c r="D23" s="22">
+        <f>D22/D7</f>
         <v>9.9471841129241262E-2</v>
       </c>
-      <c r="E22" s="22">
-        <f>E21/E7</f>
+      <c r="E23" s="22">
+        <f>E22/E7</f>
         <v>5.7030522247431652E-2</v>
       </c>
-      <c r="F22" s="22">
-        <f>F21/F7</f>
+      <c r="F23" s="22">
+        <f>F22/F7</f>
         <v>3.0142982160376133</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="23">
-        <f>B21/B7/1.414</f>
+      <c r="B24" s="23">
+        <f>B22/B7/1.414</f>
         <v>6.4318022148630444E-2</v>
       </c>
-      <c r="C23" s="23">
-        <f>C21/C7/1.414</f>
+      <c r="C24" s="23">
+        <f>C22/C7/1.414</f>
         <v>6.9265562313909707E-2</v>
       </c>
-      <c r="D23" s="23">
-        <f>D21/D7/1.414</f>
+      <c r="D24" s="23">
+        <f>D22/D7/1.414</f>
         <v>7.0347836725064547E-2</v>
       </c>
-      <c r="E23" s="23">
-        <f>E21/E7/1.414</f>
+      <c r="E24" s="23">
+        <f>E22/E7/1.414</f>
         <v>4.0332759722370333E-2</v>
       </c>
-      <c r="F23" s="23">
-        <f>F21/F7/1.414</f>
+      <c r="F24" s="23">
+        <f>F22/F7/1.414</f>
         <v>2.1317526280322583</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="16">
-        <f>B23/1.5/B4</f>
+      <c r="B25" s="16">
+        <f>B24/1.5/B4</f>
         <v>1.0719670358105074E-2</v>
       </c>
-      <c r="C24" s="16">
-        <f>C23/1.5/C4</f>
+      <c r="C25" s="16">
+        <f>C24/1.5/C4</f>
         <v>1.1544260385651617E-2</v>
       </c>
-      <c r="D24" s="16">
-        <f>D23/1.5/D4</f>
+      <c r="D25" s="16">
+        <f>D24/1.5/D4</f>
         <v>1.1724639454177425E-2</v>
       </c>
-      <c r="E24" s="16">
-        <f>E23/1.5/E4</f>
+      <c r="E25" s="16">
+        <f>E24/1.5/E4</f>
         <v>2.6888506481580223E-2</v>
       </c>
-      <c r="F24" s="16">
-        <f>F23/1.5/F4</f>
+      <c r="F25" s="16">
+        <f>F24/1.5/F4</f>
         <v>0.71058420934408606</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="23">
-        <f>B23/1.5/B4*(1000/(1/B4/2/3.1415926*60))</f>
+      <c r="B26" s="23">
+        <f>B24/1.5/B4*(1000/(1/B4/2/3.1415926*60))</f>
         <v>4.4902449428616329</v>
       </c>
-      <c r="C25" s="23">
-        <f>C23/1.5/C4*(1000/(1/C4/2/3.1415926*60))</f>
+      <c r="C26" s="23">
+        <f>C24/1.5/C4*(1000/(1/C4/2/3.1415926*60))</f>
         <v>4.8356484000048354</v>
       </c>
-      <c r="D25" s="23">
-        <f>D23/1.5/D4*(1000/(1/D4/2/3.1415926*60))</f>
+      <c r="D26" s="23">
+        <f>D24/1.5/D4*(1000/(1/D4/2/3.1415926*60))</f>
         <v>4.9112054062549113</v>
       </c>
-      <c r="E25" s="23">
-        <f>E23/1.5/E4*(1000/(1/E4/2/3.1415926*60))</f>
+      <c r="E26" s="23">
+        <f>E24/1.5/E4*(1000/(1/E4/2/3.1415926*60))</f>
         <v>2.8157577662528155</v>
       </c>
-      <c r="F25" s="23">
-        <f>F23/1.5/F4*(1000/(1/F4/2/3.1415926*60))</f>
+      <c r="F26" s="23">
+        <f>F24/1.5/F4*(1000/(1/F4/2/3.1415926*60))</f>
         <v>148.82440625014877</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="23">
-        <f>B25/1000*B6</f>
+      <c r="B27" s="23">
+        <f>B26/1000*B6</f>
         <v>13.470734828584897</v>
       </c>
-      <c r="C26" s="23">
-        <f>C25/1000*C6</f>
+      <c r="C27" s="23">
+        <f>C26/1000*C6</f>
         <v>14.506945200014506</v>
       </c>
-      <c r="D26" s="23">
-        <f>D25/1000*D6</f>
+      <c r="D27" s="23">
+        <f>D26/1000*D6</f>
         <v>14.733616218764736</v>
       </c>
-      <c r="E26" s="23">
-        <f>E25/1000*E6</f>
+      <c r="E27" s="23">
+        <f>E26/1000*E6</f>
         <v>8.4472732987584465</v>
       </c>
-      <c r="F26" s="23">
-        <f>F25/1000*F6</f>
+      <c r="F27" s="23">
+        <f>F26/1000*F6</f>
         <v>214.30714500021421</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="24">
-        <f t="shared" ref="B27" si="3">B26/1.414</f>
+      <c r="B28" s="24">
+        <f t="shared" ref="B28" si="3">B27/1.414</f>
         <v>9.5266865831576357</v>
       </c>
-      <c r="C27" s="24">
-        <f t="shared" ref="C27" si="4">C26/1.414</f>
+      <c r="C28" s="24">
+        <f t="shared" ref="C28" si="4">C27/1.414</f>
         <v>10.259508628015917</v>
       </c>
-      <c r="D27" s="24">
-        <f t="shared" ref="D27" si="5">D26/1.414</f>
+      <c r="D28" s="24">
+        <f t="shared" ref="D28" si="5">D27/1.414</f>
         <v>10.419813450328668</v>
       </c>
-      <c r="E27" s="24">
-        <f t="shared" ref="E27" si="6">E26/1.414</f>
+      <c r="E28" s="24">
+        <f t="shared" ref="E28" si="6">E27/1.414</f>
         <v>5.9740263781884346</v>
       </c>
-      <c r="F27" s="24">
-        <f t="shared" ref="F27" si="7">F26/1.414</f>
+      <c r="F28" s="24">
+        <f t="shared" ref="F28" si="7">F27/1.414</f>
         <v>151.56092291387145</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="10">
-        <v>10000</v>
-      </c>
-      <c r="C29" s="10">
-        <v>10000</v>
-      </c>
-      <c r="D29" s="10">
-        <v>10000</v>
-      </c>
-      <c r="E29" s="10">
-        <v>2000</v>
-      </c>
-      <c r="F29" s="10">
-        <v>10000</v>
+        <v>11</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="10">
+        <v>10000</v>
+      </c>
+      <c r="C30" s="10">
+        <v>10000</v>
+      </c>
+      <c r="D30" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E30" s="10">
+        <v>2000</v>
+      </c>
+      <c r="F30" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B31" s="10">
         <v>2500</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C31" s="10">
         <v>2500</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D31" s="10">
         <v>2500</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>500</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>2500</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F32" s="12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/emachinery/jsons/ACMInfo.xlsx
+++ b/emachinery/jsons/ACMInfo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DrH\Codes\emachineryTestPYPI\emachinery\jsons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D95EE4-B986-4D7D-9390-03AC9077E459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B452223-E03E-4F99-B0DB-A35BD7B51572}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27600" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本参数" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>品牌</t>
   </si>
@@ -168,6 +168,12 @@
   </si>
   <si>
     <t>母线电压 [Vdc]</t>
+  </si>
+  <si>
+    <t>ACSM080-G02430LZ</t>
+  </si>
+  <si>
+    <t>18 slot, no skew</t>
   </si>
 </sst>
 </file>
@@ -283,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -333,6 +339,9 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,9 +692,10 @@
     <col min="2" max="3" width="30.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -704,8 +714,11 @@
       <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -723,7 +736,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -742,8 +755,11 @@
       <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -762,8 +778,11 @@
       <c r="F4" s="17">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -782,8 +801,11 @@
       <c r="F5" s="17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="17">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
@@ -802,8 +824,11 @@
       <c r="F6" s="17">
         <v>1440</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -822,8 +847,11 @@
       <c r="F7" s="17">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -843,8 +871,11 @@
         <f>0.063*10000</f>
         <v>630</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="18">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>48</v>
       </c>
@@ -863,8 +894,11 @@
       <c r="F9" s="18">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -883,8 +917,11 @@
       <c r="F10" s="19">
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="19">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
@@ -904,8 +941,12 @@
         <f>F22</f>
         <v>26.525824301130999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="19">
+        <f>G22</f>
+        <v>2.3873241871017901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>8</v>
       </c>
@@ -925,8 +966,12 @@
         <f>F7</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="19">
+        <f>G7</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -946,8 +991,12 @@
         <f>F12</f>
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="19">
+        <f>G12</f>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -959,8 +1008,9 @@
         <f>24.9</f>
         <v>24.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>47</v>
       </c>
@@ -971,8 +1021,9 @@
       <c r="F15" s="20">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>44</v>
       </c>
@@ -996,8 +1047,12 @@
         <f>(0.448+0.0249)*1000</f>
         <v>472.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="20">
+        <f>5.7</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>45</v>
       </c>
@@ -1021,8 +1076,12 @@
         <f>(0.448+0.0249)*1000</f>
         <v>472.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="20">
+        <f>5.7</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1045,8 +1104,11 @@
       <c r="F18" s="20">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="20">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>38</v>
       </c>
@@ -1066,8 +1128,12 @@
         <f>2*F16</f>
         <v>945.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="21">
+        <f>2*G16</f>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>39</v>
       </c>
@@ -1084,11 +1150,15 @@
         <v>0.24399999999999999</v>
       </c>
       <c r="F20" s="21">
-        <f t="shared" ref="F20:F21" si="2">2*F17</f>
+        <f t="shared" ref="F20:G21" si="2">2*F17</f>
         <v>945.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="21">
+        <f t="shared" si="2"/>
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>40</v>
       </c>
@@ -1108,8 +1178,12 @@
         <f t="shared" si="2"/>
         <v>6.08</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="21">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>4</v>
       </c>
@@ -1133,8 +1207,12 @@
         <f>F5/(F6/60*2*3.1415926)</f>
         <v>26.525824301130999</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="21">
+        <f>G5/(G6/60*2*3.1415926)</f>
+        <v>2.3873241871017901</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
@@ -1158,8 +1236,12 @@
         <f>F22/F7</f>
         <v>3.0142982160376133</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="22">
+        <f>G22/G7</f>
+        <v>0.56841052073852139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>32</v>
       </c>
@@ -1183,8 +1265,12 @@
         <f>F22/F7/1.414</f>
         <v>2.1317526280322583</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="23">
+        <f>G22/G7/1.414</f>
+        <v>0.4019876384289402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>46</v>
       </c>
@@ -1208,8 +1294,12 @@
         <f>F24/1.5/F4</f>
         <v>0.71058420934408606</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="16">
+        <f>G24/1.5/G4</f>
+        <v>6.6997939738156695E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>35</v>
       </c>
@@ -1233,8 +1323,12 @@
         <f>F24/1.5/F4*(1000/(1/F4/2/3.1415926*60))</f>
         <v>148.82440625014877</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="23">
+        <f>G24/1.5/G4*(1000/(1/G4/2/3.1415926*60))</f>
+        <v>28.064030892885199</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>36</v>
       </c>
@@ -1258,8 +1352,12 @@
         <f>F26/1000*F6</f>
         <v>214.30714500021421</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="23">
+        <f>G26/1000*G6</f>
+        <v>84.192092678655598</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
@@ -1280,11 +1378,15 @@
         <v>5.9740263781884346</v>
       </c>
       <c r="F28" s="24">
-        <f t="shared" ref="F28" si="7">F27/1.414</f>
+        <f t="shared" ref="F28:G28" si="7">F27/1.414</f>
         <v>151.56092291387145</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="24">
+        <f t="shared" si="7"/>
+        <v>59.541791144735221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1405,11 @@
       <c r="F29" s="10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>12</v>
       </c>
@@ -1323,8 +1428,11 @@
       <c r="F30" s="10">
         <v>10000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="10">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
@@ -1343,13 +1451,19 @@
       <c r="F31" s="10">
         <v>2500</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="10">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1360,18 +1474,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1390,8 +1505,11 @@
       <c r="F1" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -1410,8 +1528,11 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1430,8 +1551,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1450,8 +1574,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -1470,8 +1597,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -1488,6 +1618,9 @@
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
